--- a/Output_testing/R1_201907/Country/HKD/MN/BOLIVIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BOLIVIA_201907_HKD_MN.xlsx
@@ -547,14 +547,20 @@
       <c r="D7" s="8" t="n">
         <v>0.946303</v>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>0.473574</v>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.052444</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.005161</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-49.9553525667783</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/BOLIVIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/BOLIVIA_201907_HKD_MN.xlsx
@@ -816,136 +816,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>233.408853</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>65.27732780127006</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>128.32608</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>51.18540940324598</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>167.404786</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>55.22502472156398</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>66.966047</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>57.29657207151801</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-19.04669823342747</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>25.261542</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>7.064881801632225</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>39.746106</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>15.85352492490078</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>50.660337</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>16.71229616593974</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>7.270545</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>6.220724146845862</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-55.63847346040281</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>9.478426000000001</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>2.650826277965048</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>12.120032</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>4.83431582964618</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>10.615557</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>3.501957212610227</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>4.926142</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.214838157275908</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-12.47603420905117</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>5.877663</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.643802835346594</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>5.303144</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>2.115264463500852</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>4.653618</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>1.535178146547824</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>3.992062</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>3.415633419379948</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>45.9274731251974</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>4.077656</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>1.140395850250015</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>3.583204</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.429232185034785</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>3.18584</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>1.050974090782252</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>3.592034</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>3.073366940180045</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>210.0031155363426</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>1.964925</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.5495295130468362</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>1.995416</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.7959113602611991</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>3.273336</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.079838072980693</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>3.16054</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.704177952969443</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>10.38650329461386</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1.316054</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.3680601110797312</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1.804359</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.7197044757030799</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>3.061957</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.010106431612809</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>3.110748</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.661575603803081</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>209.8187946066646</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>16.395764</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>4.585394458796569</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>2.538848</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.012670022279277</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>5.464822</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.802785555061411</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>2.543602</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.176321910030875</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-29.69802733969595</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>RADIO-BROADCAST RECEIVERS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>5.389224</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.507201364133655</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>2.959077</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.180286717249751</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>6.885202</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.271353524283121</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>2.09274</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.790561539894219</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-50.39874362634735</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>10.505083</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.937950886423959</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>13.232302</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>5.277966842105599</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>3.089376</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.019151662570785</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>2.001115</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.712166612147433</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-3.046753875968988</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>43.889773</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>12.27462910005531</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>39.099752</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>15.59571377607253</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>44.837285</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>14.79133441604716</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>17.220609</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>14.73406164595518</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-19.14100830507985</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -977,136 +1274,613 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>1.736124687335874</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>13.7999139810399</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>10.89016711221478</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>0.799285</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>84.46396133162423</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>89.10983288778522</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>045</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>CEREALS, UNMILLED (OTHER THAN WHEAT, RICE, BARLEY AND MAIZE)</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>VEGETABLES, FRESH, CHILLED, FROZEN OR SIMPLY PRESERVED; ROOTS, TUBERS AND OTHER EDIBLE VEGETABLE PRODUCTS, N.E.S., FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>FRUIT AND NUTS (NOT INCLUDING OIL NUTS), FRESH OR DRIED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>COFFEE AND COFFEE SUBSTITUTES</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE VEGETABLE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>FIXED VEGETABLE FATS AND OILS, `SOFT', CRUDE, REFINED OR FRACTIONATED</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1138,136 +1912,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>233.408853</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>65.45054400686716</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>128.32608</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>51.2822787607601</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>167.404786</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>55.23458069467622</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>66.966047</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>57.2991022761904</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-19.04669823342747</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>25.261542</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>7.083628770294857</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>39.746106</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>15.88352802132442</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>50.660337</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>16.71518801168559</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>7.270545</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>6.220998852726736</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-55.63847346040281</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>9.478426000000001</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>2.657860359858903</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>12.120032</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>4.843464863988153</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>10.615557</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>3.502563180812734</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>4.926142</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.215024283649848</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-12.47603420905117</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>5.877663</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.648164737089192</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>5.303144</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.119267641592827</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>4.653618</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.535443789182931</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>3.992062</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>3.415784253039353</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>45.9274731251974</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>4.077656</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>1.143421939839043</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>3.583204</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.431937034036033</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>3.18584</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>1.051155948195694</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>3.592034</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>3.073502659423115</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>210.0031155363426</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>1.964925</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.5509877133181982</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>1.995416</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.7974176375969786</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>3.273336</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.08002492493129</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>3.16054</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>2.704297368903839</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>10.38650329461386</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1.316054</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.3690367744637928</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1.804359</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.7210665300653331</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>3.061957</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.010281217408735</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>3.110748</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.661693138426623</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>209.8187946066646</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>16.395764</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>4.597562000821831</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>2.538848</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.014586519491582</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>5.464822</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.803097503682134</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>2.543602</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.176418015952509</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-29.69802733969595</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>RADIO-BROADCAST RECEIVERS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>5.389224</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.511200787978958</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>2.959077</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.182520432234459</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>6.885202</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.271746552503858</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>2.09274</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.790640610718364</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-50.39874362634735</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>10.505083</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.945746865853851</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>13.232302</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>5.287955494398048</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>3.089376</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.019328013526424</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>2.001115</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.71224222106792</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-3.046753875968988</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>42.94347</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>12.04184604361421</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>38.626178</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>15.43597706451206</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>44.784841</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>14.7765901633944</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>17.215448</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>14.7302963199013</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-18.96569497381975</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1299,136 +2370,543 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>16.096723</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>46.56232538285133</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>43.179413</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>46.72909020644301</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>3.038553</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>12.36402304172611</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>8.848845000000001</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>46.86481897729524</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>428.9622199945124</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>8.907674999999999</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>25.76686333949402</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>38.666965</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>41.84568455097745</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>17.096296</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>69.56567737083077</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>8.597199</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>45.53206377180114</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-27.55797755520533</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>8.597009999999999</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>24.86821553303904</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>6.108682</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>6.610862269491127</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>3.688928</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>15.01043121224761</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>0.599854</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>3.176917340376791</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-78.8998222229101</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>2.324041077582415</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>1.92949371921513</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.1032484630437499</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.06787334308872828</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.1282157546848088</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.06941665068553114</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-19.15247964470762</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>045</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>CEREALS, UNMILLED (OTHER THAN WHEAT, RICE, BARLEY AND MAIZE)</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>1.127389</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.220068977749919</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>1.387151235141713</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.971200772077758</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>COFFEE AND COFFEE SUBSTITUTES</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.5733006132912334</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>0.945401</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>2.734722401526884</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>3.296545</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>3.567546151556036</v>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
